--- a/ 하드 코트 2024.04.22.xlsx
+++ b/ 하드 코트 2024.04.22.xlsx
@@ -567,22 +567,32 @@
           <t>10:00~11:00</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>인증라이트 주 10-12 
  사용자      ❨서명❩ 
 관리자      ❨서명❩</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>인증 일반 10-12 
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>인증 일반4 10-14 
  사용자      ❨서명❩ 
 관리자      ❨서명❩</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>미인증 일반4 10-14 
+ 사용자      ❨서명❩ 
+관리자      ❨서명❩</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>4시간 10-14 주말아님</t>
+        </is>
+      </c>
       <c r="F7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="33" customHeight="1">
@@ -591,10 +601,10 @@
           <t>11:00~12:00</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr"/>
+      <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="33" customHeight="1">
@@ -603,10 +613,16 @@
           <t>12:00~13:00</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr"/>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>인증 일반 12-14 
+ 사용자      ❨서명❩ 
+관리자      ❨서명❩</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="33" customHeight="1">
@@ -615,10 +631,10 @@
           <t>13:00~14:00</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr"/>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="inlineStr"/>
     </row>
     <row r="11" ht="33" customHeight="1">
@@ -627,15 +643,23 @@
           <t>14:00~15:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr"/>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>미인증 일반 14-16 
  사용자      ❨서명❩ 
 관리자      ❨서명❩</t>
         </is>
       </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>인증라이트 주4 14-18 주말아님</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>미인증 라이트 주 4 14-18 주말아님</t>
+        </is>
+      </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
     </row>
@@ -645,8 +669,8 @@
           <t>15:00~16:00</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr"/>
-      <c r="C12" s="3" t="inlineStr"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="3" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
@@ -657,9 +681,15 @@
           <t>16:00~17:00</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr"/>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>미인증 라이트 주  16-18 
+ 사용자      ❨서명❩ 
+관리자      ❨서명❩</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
       <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
     </row>
@@ -669,9 +699,9 @@
           <t>17:00~18:00</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr"/>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
     </row>
@@ -682,20 +712,22 @@
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>미인증 라이트 주  18-20 
- 사용자      ❨서명❩ 
-관리자      ❨서명❩</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>인증라이트 야 18-20 
  사용자      ❨서명❩ 
 관리자      ❨서명❩</t>
         </is>
       </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>미인증 라이트 야4 18-22 주말아님</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>인증라이트 야4 18-22 주말아님</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
     </row>
@@ -706,7 +738,7 @@
         </is>
       </c>
       <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="inlineStr"/>
+      <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
@@ -717,16 +749,22 @@
           <t>20:00~21:00</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr"/>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>미인증 라이트 야 20-22 
  사용자      ❨서명❩ 
 관리자      ❨서명❩</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>수동 2 야 20-22 
+ 사용자      ❨서명❩ 
+관리자      ❨서명❩</t>
+        </is>
+      </c>
       <c r="F17" s="3" t="inlineStr"/>
     </row>
     <row r="18" ht="33" customHeight="1">
@@ -735,21 +773,29 @@
           <t>21:00~22:00</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D17:D18"/>
+  <mergeCells count="15">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D11:D14"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E7:E10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" fitToHeight="1"/>
